--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/50.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/50.xlsx
@@ -479,13 +479,13 @@
         <v>-13.71010664399527</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.382117130156935</v>
+        <v>-9.188652171064749</v>
       </c>
       <c r="F2" t="n">
-        <v>4.60754524064388</v>
+        <v>5.208167725810905</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.63111255342131</v>
+        <v>-15.72150181224059</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.21446795608925</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.837140115421125</v>
+        <v>-9.56328841688074</v>
       </c>
       <c r="F3" t="n">
-        <v>4.470416460679641</v>
+        <v>5.091358199857025</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.14743051723658</v>
+        <v>-15.2454264040069</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.64066446029025</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.959317485540112</v>
+        <v>-9.642758695130018</v>
       </c>
       <c r="F4" t="n">
-        <v>4.680966874980279</v>
+        <v>5.273393578568384</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.48331036328719</v>
+        <v>-14.52551994764891</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.03795951702761</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.84125428186731</v>
+        <v>-10.57342504263412</v>
       </c>
       <c r="F5" t="n">
-        <v>4.72147445997258</v>
+        <v>5.326207928231907</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.78258413059233</v>
+        <v>-13.6803201530956</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.4167969730747</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.42697772640045</v>
+        <v>-11.15905684104736</v>
       </c>
       <c r="F6" t="n">
-        <v>4.974836704565663</v>
+        <v>5.555873104681465</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.99472862248578</v>
+        <v>-12.92011558859078</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.80572670466368</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.11994022351016</v>
+        <v>-11.90739977917758</v>
       </c>
       <c r="F7" t="n">
-        <v>5.252210232570471</v>
+        <v>5.852204287201094</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.90958619375215</v>
+        <v>-11.71248157446997</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.20014152200649</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.88576138593409</v>
+        <v>-12.69570042558075</v>
       </c>
       <c r="F8" t="n">
-        <v>5.453805511727369</v>
+        <v>6.086085185165688</v>
       </c>
       <c r="G8" t="n">
-        <v>-11.30305908000351</v>
+        <v>-11.0460178983119</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.622719923628848</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.56444018064349</v>
+        <v>-13.40700523897173</v>
       </c>
       <c r="F9" t="n">
-        <v>5.527017669218301</v>
+        <v>6.154793590479066</v>
       </c>
       <c r="G9" t="n">
-        <v>-10.35538583110801</v>
+        <v>-9.975813787120687</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.064923824427503</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.54746264721165</v>
+        <v>-14.40967925210532</v>
       </c>
       <c r="F10" t="n">
-        <v>5.721045597332682</v>
+        <v>6.330885063700282</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.827491088226772</v>
+        <v>-9.397330386059021</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.528102797769716</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.48679609919697</v>
+        <v>-15.32701763531654</v>
       </c>
       <c r="F11" t="n">
-        <v>5.931596011633321</v>
+        <v>6.551411812766316</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.206143487661295</v>
+        <v>-8.688918971596065</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.01364695524418</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.56509125354437</v>
+        <v>-16.49266463422394</v>
       </c>
       <c r="F12" t="n">
-        <v>5.913764295162889</v>
+        <v>6.51048527408308</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.824542136733506</v>
+        <v>-8.281879276246801</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.506986517213679</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.35320860770775</v>
+        <v>-17.3569268217148</v>
       </c>
       <c r="F13" t="n">
-        <v>5.717144091085848</v>
+        <v>6.347852688183159</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.388856482766545</v>
+        <v>-7.930206929615197</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.018061241432346</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.57551909331414</v>
+        <v>-18.64835157402266</v>
       </c>
       <c r="F14" t="n">
-        <v>5.878231785250445</v>
+        <v>6.437063639746681</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.580969751312154</v>
+        <v>-7.06196468206045</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.536518659749844</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.57583649193622</v>
+        <v>-19.69222706419916</v>
       </c>
       <c r="F15" t="n">
-        <v>5.792424832425772</v>
+        <v>6.382913875193301</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.084745289005054</v>
+        <v>-6.577104338619967</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.060693737708847</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.51892743483711</v>
+        <v>-20.63779245233714</v>
       </c>
       <c r="F16" t="n">
-        <v>5.762940966426205</v>
+        <v>6.325098265844239</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.53018152523522</v>
+        <v>-6.000309844624883</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.591501964098891</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.44587556833416</v>
+        <v>-21.63409051398682</v>
       </c>
       <c r="F17" t="n">
-        <v>6.045420492539287</v>
+        <v>6.623210001550341</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.422641349693283</v>
+        <v>-5.97502860783751</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.116828589871227</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.23780278262449</v>
+        <v>-22.4599529772429</v>
       </c>
       <c r="F18" t="n">
-        <v>6.325543404140857</v>
+        <v>6.955911601364284</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.946068433951612</v>
+        <v>-5.467348380543898</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.644196691964662</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.86086547486223</v>
+        <v>-23.07415218045679</v>
       </c>
       <c r="F19" t="n">
-        <v>6.632845936441852</v>
+        <v>7.261119365210603</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.084896029931397</v>
+        <v>-4.605652284410014</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.170598385308664</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.7303383988841</v>
+        <v>-23.97166881716564</v>
       </c>
       <c r="F20" t="n">
-        <v>6.805376303290118</v>
+        <v>7.463447813326638</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.46242249132153</v>
+        <v>-4.051442012816907</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.703647402391258</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.10193723044081</v>
+        <v>-24.22089389406074</v>
       </c>
       <c r="F21" t="n">
-        <v>6.709488277277316</v>
+        <v>7.335352722323189</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.335806830539197</v>
+        <v>-3.973673733937054</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.260752110586834</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.79480808143064</v>
+        <v>-24.90665562460751</v>
       </c>
       <c r="F22" t="n">
-        <v>7.077408171735502</v>
+        <v>7.719297595459648</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.533199480483901</v>
+        <v>-4.259491797274777</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.851558398180437</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.04420335826268</v>
+        <v>-25.09384937063851</v>
       </c>
       <c r="F23" t="n">
-        <v>6.834598323232851</v>
+        <v>7.421657182655848</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.377859307266822</v>
+        <v>-4.131737106145214</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.500671617529856</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.44557408648148</v>
+        <v>-25.49311223809978</v>
       </c>
       <c r="F24" t="n">
-        <v>6.808937409663067</v>
+        <v>7.398221960569158</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.155578189619996</v>
+        <v>-3.951128788443602</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.222678378239022</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.62818552651787</v>
+        <v>-25.61458262386532</v>
       </c>
       <c r="F25" t="n">
-        <v>6.903280543940546</v>
+        <v>7.512779610434261</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.086110430741798</v>
+        <v>-3.866958373474145</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.028337298959755</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.96789150835214</v>
+        <v>-25.94486214765354</v>
       </c>
       <c r="F26" t="n">
-        <v>6.827633218121052</v>
+        <v>7.425270658240164</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.870624218269829</v>
+        <v>-3.666868709144046</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.929621909154929</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.84263744706534</v>
+        <v>-25.85930394858286</v>
       </c>
       <c r="F27" t="n">
-        <v>6.822265373955945</v>
+        <v>7.382746858610238</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.884462782373533</v>
+        <v>-3.737043452375698</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.92147347152703</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.83613057255301</v>
+        <v>-25.82682194523254</v>
       </c>
       <c r="F28" t="n">
-        <v>6.614123943378184</v>
+        <v>7.215243936053194</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.046322922405793</v>
+        <v>-3.93238061077425</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.00185311168862</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.90557214682552</v>
+        <v>-25.79554443374365</v>
       </c>
       <c r="F29" t="n">
-        <v>6.580921863371566</v>
+        <v>7.166016877368304</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.801300474722889</v>
+        <v>-3.710191139247317</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.158477185441928</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.74284791480571</v>
+        <v>-25.64544118166327</v>
       </c>
       <c r="F30" t="n">
-        <v>6.679035580867462</v>
+        <v>7.26564930199384</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.990143850911946</v>
+        <v>-3.886282612468533</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.371606481618137</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.36182262520295</v>
+        <v>-25.29558866512666</v>
       </c>
       <c r="F31" t="n">
-        <v>6.53172098929236</v>
+        <v>7.111840928209242</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.274325376394452</v>
+        <v>-4.220738580863267</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.627322302263313</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.97698747547326</v>
+        <v>-24.88896792346833</v>
       </c>
       <c r="F32" t="n">
-        <v>6.584247308293365</v>
+        <v>7.205084309048015</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.29372816920589</v>
+        <v>-4.192511575936506</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.902120247349993</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.79971769499629</v>
+        <v>-24.71569129535809</v>
       </c>
       <c r="F33" t="n">
-        <v>6.522373085063368</v>
+        <v>7.177250073206506</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.436669931631855</v>
+        <v>-4.334497600255025</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.178707414988271</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.34923773881818</v>
+        <v>-24.30112352587483</v>
       </c>
       <c r="F34" t="n">
-        <v>6.613312220601997</v>
+        <v>7.285471048496214</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.489641388929479</v>
+        <v>-4.37564670808657</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.441757871243347</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.25353300504516</v>
+        <v>-24.18691936818646</v>
       </c>
       <c r="F35" t="n">
-        <v>6.507474044429483</v>
+        <v>7.179161549421398</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.643371208897026</v>
+        <v>-4.54502182994998</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.674485671718196</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.81940533511636</v>
+        <v>-23.80445392527111</v>
       </c>
       <c r="F36" t="n">
-        <v>6.626823477134658</v>
+        <v>7.312310269321752</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.667945461330946</v>
+        <v>-4.529193235814334</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.873747842564586</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.3167918290225</v>
+        <v>-23.26755167803477</v>
       </c>
       <c r="F37" t="n">
-        <v>6.612971820728112</v>
+        <v>7.287199232471321</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.781848496053963</v>
+        <v>-4.645047023660767</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.034665349973678</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.76506909496932</v>
+        <v>-22.74145058064285</v>
       </c>
       <c r="F38" t="n">
-        <v>6.47961362398229</v>
+        <v>7.204639170751396</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.674399966631917</v>
+        <v>-4.573340480996634</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.160218444952294</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.55516020350793</v>
+        <v>-22.54765831397962</v>
       </c>
       <c r="F39" t="n">
-        <v>6.67636475108775</v>
+        <v>7.386255595771821</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.778536143435006</v>
+        <v>-4.741484926392921</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.259535271687687</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.86154309125612</v>
+        <v>-21.85202498709019</v>
       </c>
       <c r="F40" t="n">
-        <v>6.879452552768604</v>
+        <v>7.628567936766486</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.805899056374214</v>
+        <v>-4.732307222100872</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.336492873363361</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.2448563505023</v>
+        <v>-21.20775276424885</v>
       </c>
       <c r="F41" t="n">
-        <v>6.900295498892632</v>
+        <v>7.63239088919627</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.81345331511389</v>
+        <v>-4.747965616299576</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.406696222618664</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.49407824404352</v>
+        <v>-20.48397098624971</v>
       </c>
       <c r="F42" t="n">
-        <v>6.985421651969535</v>
+        <v>7.680046871540154</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.154704188683479</v>
+        <v>-5.086715860026397</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.477447812157424</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.77783763248121</v>
+        <v>-19.7028449218038</v>
       </c>
       <c r="F43" t="n">
-        <v>7.05926223999687</v>
+        <v>7.773342621590293</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.300015657923797</v>
+        <v>-5.244032970972577</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.557990287262212</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.05574476154865</v>
+        <v>-19.00541794942506</v>
       </c>
       <c r="F44" t="n">
-        <v>6.944599851709033</v>
+        <v>7.602592807928502</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.165374415499486</v>
+        <v>-5.071987019329455</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.659318559827952</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.65534286374014</v>
+        <v>-18.56749351167216</v>
       </c>
       <c r="F45" t="n">
-        <v>6.920483829874573</v>
+        <v>7.609453174617566</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.422847643184872</v>
+        <v>-5.293639706439877</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.779290806804685</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.89072619317766</v>
+        <v>-17.84415687196964</v>
       </c>
       <c r="F46" t="n">
-        <v>7.123728739189529</v>
+        <v>7.748990938304683</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.568067466305297</v>
+        <v>-5.42989130211372</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.92641459974758</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.69228615900562</v>
+        <v>-17.68014959427133</v>
       </c>
       <c r="F47" t="n">
-        <v>6.987071282127593</v>
+        <v>7.618225017521523</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.850926669200788</v>
+        <v>-5.723918239333204</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.096461239541471</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.09985945541751</v>
+        <v>-17.05839613231776</v>
       </c>
       <c r="F48" t="n">
-        <v>6.980944084397665</v>
+        <v>7.591359612090301</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.943633265623051</v>
+        <v>-5.81862795809025</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.286026484671582</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.28883057128111</v>
+        <v>-16.2192973508887</v>
       </c>
       <c r="F49" t="n">
-        <v>6.965547536255795</v>
+        <v>7.554805902556202</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.264839823541958</v>
+        <v>-6.092322548996534</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.495735806833018</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.7233871038498</v>
+        <v>-15.65763755897865</v>
       </c>
       <c r="F50" t="n">
-        <v>6.706450863018036</v>
+        <v>7.295264091021824</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.478231267559251</v>
+        <v>-6.313975236106956</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.713065154832708</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.99616205020328</v>
+        <v>-14.93464131915001</v>
       </c>
       <c r="F51" t="n">
-        <v>6.628970614800701</v>
+        <v>7.170703921785642</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.44992570881544</v>
+        <v>-6.279882879507102</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.939876615355066</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.39242359695993</v>
+        <v>-14.30204743044349</v>
       </c>
       <c r="F52" t="n">
-        <v>6.551045228286748</v>
+        <v>7.067641313815574</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.735848510575895</v>
+        <v>-6.523871035265508</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.167760249588542</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.89076582897351</v>
+        <v>-13.79896260144733</v>
       </c>
       <c r="F53" t="n">
-        <v>6.557591379707611</v>
+        <v>7.087305952683847</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.792682197211828</v>
+        <v>-6.563161036093528</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.390512481778293</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.37672274249882</v>
+        <v>-13.32460228488591</v>
       </c>
       <c r="F54" t="n">
-        <v>6.32457457373057</v>
+        <v>6.858740529672994</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.988739432266676</v>
+        <v>-6.769482636576289</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.61043402706342</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.7775142260387</v>
+        <v>-12.73005462823744</v>
       </c>
       <c r="F55" t="n">
-        <v>6.374718093614381</v>
+        <v>6.87039267920213</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.262761330744002</v>
+        <v>-7.069492756194443</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.817330597810368</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.53397120857691</v>
+        <v>-12.46786817152904</v>
       </c>
       <c r="F56" t="n">
-        <v>6.35476542408359</v>
+        <v>6.882647074661985</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.288108029045584</v>
+        <v>-7.054135484961098</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.018567380773673</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.11304057991258</v>
+        <v>-12.02829410361808</v>
       </c>
       <c r="F57" t="n">
-        <v>6.062414301627848</v>
+        <v>6.554187380968762</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.550229024239782</v>
+        <v>-7.29808436381098</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.212714512587978</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.69246344342497</v>
+        <v>-11.60039836984195</v>
       </c>
       <c r="F58" t="n">
-        <v>6.180297396414749</v>
+        <v>6.687912162194152</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.153627077609253</v>
+        <v>-7.976854804640268</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.399148371024477</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.54530595948397</v>
+        <v>-11.51137071051821</v>
       </c>
       <c r="F59" t="n">
-        <v>6.041964124589071</v>
+        <v>6.547929260210417</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.244893520718925</v>
+        <v>-8.025623632725697</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.587469485539906</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.27661262826322</v>
+        <v>-11.26065311109916</v>
       </c>
       <c r="F60" t="n">
-        <v>5.930496258194616</v>
+        <v>6.415147124789631</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.479114818557404</v>
+        <v>-8.264257036621839</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.770861130142047</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.31748679773509</v>
+        <v>-11.30468252555588</v>
       </c>
       <c r="F61" t="n">
-        <v>5.786219080878794</v>
+        <v>6.252671646523811</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.927447637069472</v>
+        <v>-8.727842387944516</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.959636005676197</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.26370361766128</v>
+        <v>-11.32408531836732</v>
       </c>
       <c r="F62" t="n">
-        <v>5.687791148114697</v>
+        <v>6.218186520838704</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.108841492941586</v>
+        <v>-8.928652128930912</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.153087485874567</v>
       </c>
       <c r="E63" t="n">
-        <v>-10.92171957513255</v>
+        <v>-10.9619260371595</v>
       </c>
       <c r="F63" t="n">
-        <v>5.924683275732889</v>
+        <v>6.49713112518452</v>
       </c>
       <c r="G63" t="n">
-        <v>-9.118961843038241</v>
+        <v>-8.958397840987313</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.347318111166377</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.79972549725335</v>
+        <v>-10.77267679958234</v>
       </c>
       <c r="F64" t="n">
-        <v>5.786507111541312</v>
+        <v>6.354398839604022</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.290863779350104</v>
+        <v>-9.144046695282988</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.54882709121993</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.88304491253809</v>
+        <v>-10.84221001997475</v>
       </c>
       <c r="F65" t="n">
-        <v>5.735708976515415</v>
+        <v>6.320699252089419</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.36288453728244</v>
+        <v>-9.214705853719783</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.744491789824334</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.61920882567163</v>
+        <v>-10.56433898446196</v>
       </c>
       <c r="F66" t="n">
-        <v>5.642046641985707</v>
+        <v>6.179328566004461</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.66720202453552</v>
+        <v>-9.560591402495344</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.939103017263152</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.86141642824356</v>
+        <v>-10.80700481763335</v>
       </c>
       <c r="F67" t="n">
-        <v>5.373680618336006</v>
+        <v>5.926332905890947</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.706112348581129</v>
+        <v>-9.603782909570199</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.127195358064053</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.90653250383615</v>
+        <v>-10.90782864181748</v>
       </c>
       <c r="F68" t="n">
-        <v>5.343044629686367</v>
+        <v>5.894361502351451</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.554163081800057</v>
+        <v>-9.441647831178264</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.299289467942522</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.70116664146084</v>
+        <v>-10.69452884392008</v>
       </c>
       <c r="F69" t="n">
-        <v>5.410443804715572</v>
+        <v>5.928846628036558</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.635112790270449</v>
+        <v>-9.484498938379232</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.458779800506283</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.92254439021158</v>
+        <v>-10.93207558668036</v>
       </c>
       <c r="F70" t="n">
-        <v>5.131001692861771</v>
+        <v>5.687529302057863</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.633489344718075</v>
+        <v>-9.542445470756713</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.59068761838793</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.92606621967601</v>
+        <v>-10.92058054478532</v>
       </c>
       <c r="F71" t="n">
-        <v>4.962399016866023</v>
+        <v>5.43576431841147</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.628435715821169</v>
+        <v>-9.522702278071389</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.69828982516777</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.02890625849776</v>
+        <v>-10.99508884025759</v>
       </c>
       <c r="F72" t="n">
-        <v>5.064780825088321</v>
+        <v>5.601434318570672</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.805509111755514</v>
+        <v>-9.742234012121452</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.776884685585474</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.45365983959188</v>
+        <v>-11.43684932274311</v>
       </c>
       <c r="F73" t="n">
-        <v>5.127309663460404</v>
+        <v>5.692870961617287</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.665041794566635</v>
+        <v>-9.54759074577351</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.818635450265759</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.56572995191706</v>
+        <v>-11.55392069475382</v>
       </c>
       <c r="F74" t="n">
-        <v>5.188503086942633</v>
+        <v>5.707115387109085</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.678985097093074</v>
+        <v>-9.588373269125487</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.830260739794555</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.04984403409556</v>
+        <v>-12.06088084539114</v>
       </c>
       <c r="F75" t="n">
-        <v>5.09389810660832</v>
+        <v>5.64275362633916</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.735229630101129</v>
+        <v>-9.692326153688793</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.800465040075714</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.09505175580804</v>
+        <v>-12.03442130134801</v>
       </c>
       <c r="F76" t="n">
-        <v>4.995574912266957</v>
+        <v>5.540319448905495</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.716848036911346</v>
+        <v>-9.706177810095339</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.734467620045244</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.68614304450629</v>
+        <v>-12.67807818595579</v>
       </c>
       <c r="F77" t="n">
-        <v>5.026237085522279</v>
+        <v>5.536941634772329</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.515449142297074</v>
+        <v>-9.487143583553262</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.62949888143304</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.3708181139172</v>
+        <v>-13.36995402192965</v>
       </c>
       <c r="F78" t="n">
-        <v>5.107278440112563</v>
+        <v>5.608608900527939</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.03946538018328</v>
+        <v>-8.936088556945011</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.478944933647874</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.75131971140628</v>
+        <v>-13.6971699468529</v>
       </c>
       <c r="F79" t="n">
-        <v>5.283998343870183</v>
+        <v>5.790015848702895</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.104953078997594</v>
+        <v>-9.071410599117092</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.290128270604797</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.30852812035014</v>
+        <v>-14.27841582381417</v>
       </c>
       <c r="F80" t="n">
-        <v>5.325815159146655</v>
+        <v>5.810675502587139</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.59664442116758</v>
+        <v>-8.52163861818733</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.053873563401144</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.88269106147404</v>
+        <v>-14.85689922487584</v>
       </c>
       <c r="F81" t="n">
-        <v>5.334770294290396</v>
+        <v>5.864982374774618</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.489915968401828</v>
+        <v>-8.399749278730861</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.77798047189974</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.73782791388422</v>
+        <v>-15.71229792334286</v>
       </c>
       <c r="F82" t="n">
-        <v>5.309004642297879</v>
+        <v>5.862023514332388</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.385059714942445</v>
+        <v>-8.288661089118815</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.464268332817138</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.7877520479736</v>
+        <v>-16.75077938474857</v>
       </c>
       <c r="F83" t="n">
-        <v>5.463703292675715</v>
+        <v>6.028767083324611</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.193034909162849</v>
+        <v>-8.127102072051915</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.112215310407635</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.82204397246996</v>
+        <v>-17.72505619301845</v>
       </c>
       <c r="F84" t="n">
-        <v>5.378681878021546</v>
+        <v>5.945945175547852</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.832525258113079</v>
+        <v>-7.770467742643298</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.735656258563202</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.69118958892079</v>
+        <v>-18.60385083666363</v>
       </c>
       <c r="F85" t="n">
-        <v>5.676243737008295</v>
+        <v>6.214154091563453</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.665820966029381</v>
+        <v>-7.582252796990644</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.333784169765802</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.95400765951948</v>
+        <v>-19.88185597855873</v>
       </c>
       <c r="F86" t="n">
-        <v>5.561581348720458</v>
+        <v>6.084409370401947</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.599508452136039</v>
+        <v>-7.560781420330213</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.922171864598015</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.02033644906954</v>
+        <v>-20.93623149561429</v>
       </c>
       <c r="F87" t="n">
-        <v>5.58828964651758</v>
+        <v>6.138009258235973</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.198674508333753</v>
+        <v>-7.094787085284657</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.512292057474574</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.51454788009289</v>
+        <v>-22.36439225880114</v>
       </c>
       <c r="F88" t="n">
-        <v>5.847412504361022</v>
+        <v>6.428291796842724</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.248268151498212</v>
+        <v>-7.150128249396634</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.112165439966862</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.04472386702247</v>
+        <v>-23.94719930315445</v>
       </c>
       <c r="F89" t="n">
-        <v>5.715127876448221</v>
+        <v>6.273802623310356</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.928724316040204</v>
+        <v>-6.826957846051467</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.742671051675644</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.49800875936259</v>
+        <v>-25.30801326052346</v>
       </c>
       <c r="F90" t="n">
-        <v>5.921672046079292</v>
+        <v>6.530254651374086</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.271991404247419</v>
+        <v>-7.204906444486415</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.406655627098009</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.22274945882306</v>
+        <v>-27.04913243083893</v>
       </c>
       <c r="F91" t="n">
-        <v>6.076737280936696</v>
+        <v>6.652667682944226</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.828188522518589</v>
+        <v>-6.757895948561362</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.115338170045986</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.20057746451693</v>
+        <v>-29.03579774095097</v>
       </c>
       <c r="F92" t="n">
-        <v>5.887815350930588</v>
+        <v>6.419284292487617</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.077845645407463</v>
+        <v>-7.011703331451064</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.870787176498434</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.05338707037516</v>
+        <v>-30.889864207882</v>
       </c>
       <c r="F93" t="n">
-        <v>5.835001001267066</v>
+        <v>6.407448850718696</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.55725640751191</v>
+        <v>-6.398302758710514</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.664342366396588</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.09604815974127</v>
+        <v>-32.91022910550864</v>
       </c>
       <c r="F94" t="n">
-        <v>5.874618309666128</v>
+        <v>6.406951343210711</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.79087545941967</v>
+        <v>-6.699203154921904</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.496303350944654</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.32522219539059</v>
+        <v>-35.1940373209165</v>
       </c>
       <c r="F95" t="n">
-        <v>5.757311276204263</v>
+        <v>6.335441185089203</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.334490874659941</v>
+        <v>-6.167275982765416</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.348573113946681</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.70727505132276</v>
+        <v>-37.59595120025956</v>
       </c>
       <c r="F96" t="n">
-        <v>5.598213612071608</v>
+        <v>6.138087812053024</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.320338095288035</v>
+        <v>-6.131782749761496</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.213187443196698</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.75948042946048</v>
+        <v>-39.61890837384887</v>
       </c>
       <c r="F97" t="n">
-        <v>5.468573629332837</v>
+        <v>6.043273354873244</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.927071502528268</v>
+        <v>-5.730202544697232</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.073728874563475</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.19362755839987</v>
+        <v>-42.04218889142962</v>
       </c>
       <c r="F98" t="n">
-        <v>5.380855200293271</v>
+        <v>5.947647174917276</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.107627451018511</v>
+        <v>-5.912342661831326</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.918559748087277</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.41622925802265</v>
+        <v>-44.33982257863834</v>
       </c>
       <c r="F99" t="n">
-        <v>5.249984541087378</v>
+        <v>5.800908644667211</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.855364959864134</v>
+        <v>-5.651033389413315</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.735145562956747</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.57545111958864</v>
+        <v>-46.48118653912822</v>
       </c>
       <c r="F100" t="n">
-        <v>4.991490113780339</v>
+        <v>5.536548865687078</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.926076487512296</v>
+        <v>-5.719650148606801</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.528135361943376</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.04657091175307</v>
+        <v>-48.92352944964653</v>
       </c>
       <c r="F101" t="n">
-        <v>4.885075876282789</v>
+        <v>5.469882859617009</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.014135316425746</v>
+        <v>-5.777675234801332</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.274569868988069</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.36760054413995</v>
+        <v>-51.31731300892488</v>
       </c>
       <c r="F102" t="n">
-        <v>4.353083242612092</v>
+        <v>4.849857581638545</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.710786659582952</v>
+        <v>-5.461469936567963</v>
       </c>
     </row>
   </sheetData>
